--- a/data/all-lga-2023.xlsx
+++ b/data/all-lga-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsharma/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsharma/Downloads/fit3179-a2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E862F15-CD9E-A44E-9CC3-8608DDEF8A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D50377-3070-FE4E-907F-6C7EC4BBBE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="38160" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>LGA</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>Yarra Ranges</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Inner South East</t>
+  </si>
+  <si>
+    <t>Inner Metro</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Southern</t>
   </si>
 </sst>
 </file>
@@ -156,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,13 +200,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -492,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,7 +540,7 @@
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +550,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -526,8 +564,11 @@
       <c r="C2">
         <v>129607</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -537,8 +578,11 @@
       <c r="C3">
         <v>104307</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -548,8 +592,11 @@
       <c r="C4">
         <v>174633</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -559,8 +606,11 @@
       <c r="C5">
         <v>196059</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -570,8 +620,11 @@
       <c r="C6">
         <v>126932</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -581,8 +634,11 @@
       <c r="C7">
         <v>392060</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -592,8 +648,11 @@
       <c r="C8">
         <v>155713</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -603,8 +662,11 @@
       <c r="C9">
         <v>142808</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -614,8 +676,11 @@
       <c r="C10">
         <v>156897</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -625,8 +690,11 @@
       <c r="C11">
         <v>163824</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -636,8 +704,11 @@
       <c r="C12">
         <v>93740</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -647,8 +718,11 @@
       <c r="C13">
         <v>262741</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -658,8 +732,11 @@
       <c r="C14">
         <v>163736</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -669,8 +746,11 @@
       <c r="C15">
         <v>161765</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -680,8 +760,11 @@
       <c r="C16">
         <v>129543</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -691,8 +774,11 @@
       <c r="C17">
         <v>91776</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -702,8 +788,11 @@
       <c r="C18">
         <v>117432</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -713,8 +802,11 @@
       <c r="C19">
         <v>177785</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -724,8 +816,11 @@
       <c r="C20">
         <v>206021</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -735,8 +830,11 @@
       <c r="C21">
         <v>53712</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -746,8 +844,11 @@
       <c r="C22">
         <v>203687</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -757,8 +858,11 @@
       <c r="C23">
         <v>126499</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -768,8 +872,11 @@
       <c r="C24">
         <v>181265</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -779,8 +886,11 @@
       <c r="C25">
         <v>170245</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -790,8 +900,11 @@
       <c r="C26">
         <v>63259</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -801,8 +914,11 @@
       <c r="C27">
         <v>109585</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -812,8 +928,11 @@
       <c r="C28">
         <v>111416</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -823,8 +942,11 @@
       <c r="C29">
         <v>178714</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -834,8 +956,11 @@
       <c r="C30">
         <v>245013</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -845,8 +970,11 @@
       <c r="C31">
         <v>324061</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -856,8 +984,11 @@
       <c r="C32">
         <v>97505</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -866,6 +997,9 @@
       </c>
       <c r="C33">
         <v>158672</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
